--- a/Output/instrument_data_ogdi_years/dhs_2013-2022.xlsx
+++ b/Output/instrument_data_ogdi_years/dhs_2013-2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="145">
   <si>
     <t>country</t>
   </si>
@@ -384,6 +384,36 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>Completed</t>
@@ -500,20 +530,20 @@
       <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="n">
-        <v>2015.0</v>
+      <c r="C2" t="s">
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -526,20 +556,20 @@
       <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="n">
-        <v>2017.0</v>
+      <c r="C3" t="s">
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -552,20 +582,20 @@
       <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="n">
-        <v>2015.0</v>
+      <c r="C4" t="s">
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -578,20 +608,20 @@
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="n">
-        <v>2016.0</v>
+      <c r="C5" t="s">
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -604,20 +634,20 @@
       <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="n">
-        <v>2014.0</v>
+      <c r="C6" t="s">
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -630,20 +660,20 @@
       <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="n">
-        <v>2017.0</v>
+      <c r="C7" t="s">
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -656,20 +686,20 @@
       <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="n">
-        <v>2022.0</v>
+      <c r="C8" t="s">
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -682,20 +712,20 @@
       <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="n">
-        <v>2017.0</v>
+      <c r="C9" t="s">
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -708,20 +738,20 @@
       <c r="B10" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="n">
-        <v>2014.0</v>
+      <c r="C10" t="s">
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -734,20 +764,20 @@
       <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="n">
-        <v>2017.0</v>
+      <c r="C11" t="s">
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -760,20 +790,20 @@
       <c r="B12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="n">
-        <v>2021.0</v>
+      <c r="C12" t="s">
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -786,20 +816,20 @@
       <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="n">
-        <v>2016.0</v>
+      <c r="C13" t="s">
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -812,20 +842,20 @@
       <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="C14" t="n">
-        <v>2014.0</v>
+      <c r="C14" t="s">
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -838,20 +868,20 @@
       <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="n">
-        <v>2021.0</v>
+      <c r="C15" t="s">
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -864,20 +894,20 @@
       <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="n">
-        <v>2018.0</v>
+      <c r="C16" t="s">
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
@@ -890,20 +920,20 @@
       <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="n">
-        <v>2022.0</v>
+      <c r="C17" t="s">
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
@@ -916,20 +946,20 @@
       <c r="B18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="n">
-        <v>2014.0</v>
+      <c r="C18" t="s">
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -942,20 +972,20 @@
       <c r="B19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="n">
-        <v>2015.0</v>
+      <c r="C19" t="s">
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
@@ -968,23 +998,23 @@
       <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="n">
-        <v>2013.0</v>
+      <c r="C20" t="s">
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21">
@@ -994,23 +1024,23 @@
       <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="n">
-        <v>2021.0</v>
+      <c r="C21" t="s">
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22">
@@ -1020,20 +1050,20 @@
       <c r="B22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" t="n">
-        <v>2013.0</v>
+      <c r="C22" t="s">
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
         <v>22</v>
@@ -1046,20 +1076,20 @@
       <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="n">
-        <v>2014.0</v>
+      <c r="C23" t="s">
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
@@ -1072,20 +1102,20 @@
       <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="n">
-        <v>2015.0</v>
+      <c r="C24" t="s">
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
@@ -1098,20 +1128,20 @@
       <c r="B25" t="s">
         <v>82</v>
       </c>
-      <c r="C25" t="n">
-        <v>2016.0</v>
+      <c r="C25" t="s">
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H25" t="s">
         <v>24</v>
@@ -1124,20 +1154,20 @@
       <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="n">
-        <v>2019.0</v>
+      <c r="C26" t="s">
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
         <v>24</v>
@@ -1150,20 +1180,20 @@
       <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="n">
-        <v>2019.0</v>
+      <c r="C27" t="s">
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
         <v>25</v>
@@ -1176,20 +1206,20 @@
       <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" t="n">
-        <v>2013.0</v>
+      <c r="C28" t="s">
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
         <v>26</v>
@@ -1202,20 +1232,20 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="n">
-        <v>2019.0</v>
+      <c r="C29" t="s">
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
         <v>26</v>
@@ -1228,20 +1258,20 @@
       <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="n">
-        <v>2014.0</v>
+      <c r="C30" t="s">
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H30" t="s">
         <v>27</v>
@@ -1254,20 +1284,20 @@
       <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" t="n">
-        <v>2016.0</v>
+      <c r="C31" t="s">
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H31" t="s">
         <v>27</v>
@@ -1280,20 +1310,20 @@
       <c r="B32" t="s">
         <v>85</v>
       </c>
-      <c r="C32" t="n">
-        <v>2017.0</v>
+      <c r="C32" t="s">
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H32" t="s">
         <v>27</v>
@@ -1306,20 +1336,20 @@
       <c r="B33" t="s">
         <v>85</v>
       </c>
-      <c r="C33" t="n">
-        <v>2019.0</v>
+      <c r="C33" t="s">
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H33" t="s">
         <v>27</v>
@@ -1332,20 +1362,20 @@
       <c r="B34" t="s">
         <v>85</v>
       </c>
-      <c r="C34" t="n">
-        <v>2022.0</v>
+      <c r="C34" t="s">
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s">
         <v>27</v>
@@ -1358,20 +1388,20 @@
       <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C35" t="n">
-        <v>2015.0</v>
+      <c r="C35" t="s">
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -1384,20 +1414,20 @@
       <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="C36" t="n">
-        <v>2016.0</v>
+      <c r="C36" t="s">
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -1410,20 +1440,20 @@
       <c r="B37" t="s">
         <v>87</v>
       </c>
-      <c r="C37" t="n">
-        <v>2018.0</v>
+      <c r="C37" t="s">
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -1436,20 +1466,20 @@
       <c r="B38" t="s">
         <v>87</v>
       </c>
-      <c r="C38" t="n">
-        <v>2021.0</v>
+      <c r="C38" t="s">
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -1462,20 +1492,20 @@
       <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="C39" t="n">
-        <v>2013.0</v>
+      <c r="C39" t="s">
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H39" t="s">
         <v>30</v>
@@ -1488,20 +1518,20 @@
       <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="n">
-        <v>2016.0</v>
+      <c r="C40" t="s">
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H40" t="s">
         <v>30</v>
@@ -1514,20 +1544,20 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" t="n">
-        <v>2015.0</v>
+      <c r="C41" t="s">
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -1540,20 +1570,20 @@
       <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="C42" t="n">
-        <v>2020.0</v>
+      <c r="C42" t="s">
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -1566,20 +1596,20 @@
       <c r="B43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" t="n">
-        <v>2017.0</v>
+      <c r="C43" t="s">
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
@@ -1592,20 +1622,20 @@
       <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="C44" t="n">
-        <v>2017.0</v>
+      <c r="C44" t="s">
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
@@ -1618,20 +1648,20 @@
       <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="C45" t="n">
-        <v>2017.0</v>
+      <c r="C45" t="s">
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H45" t="s">
         <v>33</v>
@@ -1644,20 +1674,20 @@
       <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="C46" t="n">
-        <v>2014.0</v>
+      <c r="C46" t="s">
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G46" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H46" t="s">
         <v>34</v>
@@ -1670,20 +1700,20 @@
       <c r="B47" t="s">
         <v>92</v>
       </c>
-      <c r="C47" t="n">
-        <v>2015.0</v>
+      <c r="C47" t="s">
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H47" t="s">
         <v>34</v>
@@ -1696,20 +1726,20 @@
       <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="n">
-        <v>2020.0</v>
+      <c r="C48" t="s">
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H48" t="s">
         <v>34</v>
@@ -1722,20 +1752,20 @@
       <c r="B49" t="s">
         <v>92</v>
       </c>
-      <c r="C49" t="n">
-        <v>2022.0</v>
+      <c r="C49" t="s">
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H49" t="s">
         <v>34</v>
@@ -1748,20 +1778,20 @@
       <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" t="n">
-        <v>2014.0</v>
+      <c r="C50" t="s">
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H50" t="s">
         <v>35</v>
@@ -1774,20 +1804,20 @@
       <c r="B51" t="s">
         <v>94</v>
       </c>
-      <c r="C51" t="n">
-        <v>2013.0</v>
+      <c r="C51" t="s">
+        <v>131</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H51" t="s">
         <v>36</v>
@@ -1800,20 +1830,20 @@
       <c r="B52" t="s">
         <v>94</v>
       </c>
-      <c r="C52" t="n">
-        <v>2016.0</v>
+      <c r="C52" t="s">
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H52" t="s">
         <v>36</v>
@@ -1826,20 +1856,20 @@
       <c r="B53" t="s">
         <v>94</v>
       </c>
-      <c r="C53" t="n">
-        <v>2019.0</v>
+      <c r="C53" t="s">
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H53" t="s">
         <v>36</v>
@@ -1852,20 +1882,20 @@
       <c r="B54" t="s">
         <v>94</v>
       </c>
-      <c r="C54" t="n">
-        <v>2022.0</v>
+      <c r="C54" t="s">
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H54" t="s">
         <v>36</v>
@@ -1878,20 +1908,20 @@
       <c r="B55" t="s">
         <v>95</v>
       </c>
-      <c r="C55" t="n">
-        <v>2013.0</v>
+      <c r="C55" t="s">
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H55" t="s">
         <v>37</v>
@@ -1904,20 +1934,20 @@
       <c r="B56" t="s">
         <v>95</v>
       </c>
-      <c r="C56" t="n">
-        <v>2016.0</v>
+      <c r="C56" t="s">
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F56" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H56" t="s">
         <v>37</v>
@@ -1930,20 +1960,20 @@
       <c r="B57" t="s">
         <v>95</v>
       </c>
-      <c r="C57" t="n">
-        <v>2021.0</v>
+      <c r="C57" t="s">
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H57" t="s">
         <v>37</v>
@@ -1956,20 +1986,20 @@
       <c r="B58" t="s">
         <v>96</v>
       </c>
-      <c r="C58" t="n">
-        <v>2014.0</v>
+      <c r="C58" t="s">
+        <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H58" t="s">
         <v>38</v>
@@ -1982,20 +2012,20 @@
       <c r="B59" t="s">
         <v>96</v>
       </c>
-      <c r="C59" t="n">
-        <v>2015.0</v>
+      <c r="C59" t="s">
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H59" t="s">
         <v>38</v>
@@ -2008,20 +2038,20 @@
       <c r="B60" t="s">
         <v>96</v>
       </c>
-      <c r="C60" t="n">
-        <v>2017.0</v>
+      <c r="C60" t="s">
+        <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H60" t="s">
         <v>38</v>
@@ -2034,20 +2064,20 @@
       <c r="B61" t="s">
         <v>97</v>
       </c>
-      <c r="C61" t="n">
-        <v>2016.0</v>
+      <c r="C61" t="s">
+        <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H61" t="s">
         <v>39</v>
@@ -2060,20 +2090,20 @@
       <c r="B62" t="s">
         <v>98</v>
       </c>
-      <c r="C62" t="n">
-        <v>2015.0</v>
+      <c r="C62" t="s">
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G62" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H62" t="s">
         <v>40</v>
@@ -2086,20 +2116,20 @@
       <c r="B63" t="s">
         <v>98</v>
       </c>
-      <c r="C63" t="n">
-        <v>2018.0</v>
+      <c r="C63" t="s">
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H63" t="s">
         <v>40</v>
@@ -2112,20 +2142,20 @@
       <c r="B64" t="s">
         <v>98</v>
       </c>
-      <c r="C64" t="n">
-        <v>2021.0</v>
+      <c r="C64" t="s">
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H64" t="s">
         <v>40</v>
@@ -2138,20 +2168,20 @@
       <c r="B65" t="s">
         <v>99</v>
       </c>
-      <c r="C65" t="n">
-        <v>2020.0</v>
+      <c r="C65" t="s">
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H65" t="s">
         <v>41</v>
@@ -2164,20 +2194,20 @@
       <c r="B66" t="s">
         <v>100</v>
       </c>
-      <c r="C66" t="n">
-        <v>2015.0</v>
+      <c r="C66" t="s">
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H66" t="s">
         <v>42</v>
@@ -2190,20 +2220,20 @@
       <c r="B67" t="s">
         <v>100</v>
       </c>
-      <c r="C67" t="n">
-        <v>2018.0</v>
+      <c r="C67" t="s">
+        <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G67" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H67" t="s">
         <v>42</v>
@@ -2216,20 +2246,20 @@
       <c r="B68" t="s">
         <v>100</v>
       </c>
-      <c r="C68" t="n">
-        <v>2022.0</v>
+      <c r="C68" t="s">
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H68" t="s">
         <v>42</v>
@@ -2242,23 +2272,23 @@
       <c r="B69" t="s">
         <v>101</v>
       </c>
-      <c r="C69" t="n">
-        <v>2016.0</v>
+      <c r="C69" t="s">
+        <v>126</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G69" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -2268,20 +2298,20 @@
       <c r="B70" t="s">
         <v>102</v>
       </c>
-      <c r="C70" t="n">
-        <v>2013.0</v>
+      <c r="C70" t="s">
+        <v>131</v>
       </c>
       <c r="D70" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E70" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H70" t="s">
         <v>44</v>
@@ -2294,20 +2324,20 @@
       <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" t="n">
-        <v>2016.0</v>
+      <c r="C71" t="s">
+        <v>126</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H71" t="s">
         <v>45</v>
@@ -2320,20 +2350,20 @@
       <c r="B72" t="s">
         <v>103</v>
       </c>
-      <c r="C72" t="n">
-        <v>2022.0</v>
+      <c r="C72" t="s">
+        <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H72" t="s">
         <v>45</v>
@@ -2346,20 +2376,20 @@
       <c r="B73" t="s">
         <v>104</v>
       </c>
-      <c r="C73" t="n">
-        <v>2021.0</v>
+      <c r="C73" t="s">
+        <v>129</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G73" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H73" t="s">
         <v>46</v>
@@ -2372,20 +2402,20 @@
       <c r="B74" t="s">
         <v>105</v>
       </c>
-      <c r="C74" t="n">
-        <v>2013.0</v>
+      <c r="C74" t="s">
+        <v>131</v>
       </c>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G74" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H74" t="s">
         <v>47</v>
@@ -2398,20 +2428,20 @@
       <c r="B75" t="s">
         <v>105</v>
       </c>
-      <c r="C75" t="n">
-        <v>2015.0</v>
+      <c r="C75" t="s">
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G75" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
@@ -2424,20 +2454,20 @@
       <c r="B76" t="s">
         <v>105</v>
       </c>
-      <c r="C76" t="n">
-        <v>2018.0</v>
+      <c r="C76" t="s">
+        <v>130</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G76" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H76" t="s">
         <v>47</v>
@@ -2450,20 +2480,20 @@
       <c r="B77" t="s">
         <v>105</v>
       </c>
-      <c r="C77" t="n">
-        <v>2021.0</v>
+      <c r="C77" t="s">
+        <v>129</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G77" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
@@ -2476,20 +2506,20 @@
       <c r="B78" t="s">
         <v>106</v>
       </c>
-      <c r="C78" t="n">
-        <v>2017.0</v>
+      <c r="C78" t="s">
+        <v>125</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G78" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H78" t="s">
         <v>48</v>
@@ -2502,20 +2532,20 @@
       <c r="B79" t="s">
         <v>106</v>
       </c>
-      <c r="C79" t="n">
-        <v>2019.0</v>
+      <c r="C79" t="s">
+        <v>132</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F79" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G79" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H79" t="s">
         <v>48</v>
@@ -2528,20 +2558,20 @@
       <c r="B80" t="s">
         <v>107</v>
       </c>
-      <c r="C80" t="n">
-        <v>2017.0</v>
+      <c r="C80" t="s">
+        <v>125</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G80" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H80" t="s">
         <v>49</v>
@@ -2554,20 +2584,20 @@
       <c r="B81" t="s">
         <v>108</v>
       </c>
-      <c r="C81" t="n">
-        <v>2013.0</v>
+      <c r="C81" t="s">
+        <v>131</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G81" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H81" t="s">
         <v>50</v>
@@ -2580,20 +2610,20 @@
       <c r="B82" t="s">
         <v>108</v>
       </c>
-      <c r="C82" t="n">
-        <v>2014.0</v>
+      <c r="C82" t="s">
+        <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F82" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G82" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H82" t="s">
         <v>50</v>
@@ -2606,20 +2636,20 @@
       <c r="B83" t="s">
         <v>109</v>
       </c>
-      <c r="C83" t="n">
-        <v>2013.0</v>
+      <c r="C83" t="s">
+        <v>131</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G83" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H83" t="s">
         <v>51</v>
@@ -2632,20 +2662,20 @@
       <c r="B84" t="s">
         <v>109</v>
       </c>
-      <c r="C84" t="n">
-        <v>2017.0</v>
+      <c r="C84" t="s">
+        <v>125</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E84" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F84" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G84" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H84" t="s">
         <v>51</v>
@@ -2658,20 +2688,20 @@
       <c r="B85" t="s">
         <v>109</v>
       </c>
-      <c r="C85" t="n">
-        <v>2022.0</v>
+      <c r="C85" t="s">
+        <v>128</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H85" t="s">
         <v>51</v>
@@ -2684,20 +2714,20 @@
       <c r="B86" t="s">
         <v>110</v>
       </c>
-      <c r="C86" t="n">
-        <v>2013.0</v>
+      <c r="C86" t="s">
+        <v>131</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H86" t="s">
         <v>52</v>
@@ -2710,20 +2740,20 @@
       <c r="B87" t="s">
         <v>110</v>
       </c>
-      <c r="C87" t="n">
-        <v>2015.0</v>
+      <c r="C87" t="s">
+        <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E87" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H87" t="s">
         <v>52</v>
@@ -2736,20 +2766,20 @@
       <c r="B88" t="s">
         <v>110</v>
       </c>
-      <c r="C88" t="n">
-        <v>2017.0</v>
+      <c r="C88" t="s">
+        <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G88" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H88" t="s">
         <v>52</v>
@@ -2762,20 +2792,20 @@
       <c r="B89" t="s">
         <v>110</v>
       </c>
-      <c r="C89" t="n">
-        <v>2019.0</v>
+      <c r="C89" t="s">
+        <v>132</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F89" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G89" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H89" t="s">
         <v>52</v>
@@ -2788,20 +2818,20 @@
       <c r="B90" t="s">
         <v>111</v>
       </c>
-      <c r="C90" t="n">
-        <v>2014.0</v>
+      <c r="C90" t="s">
+        <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E90" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G90" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H90" t="s">
         <v>53</v>
@@ -2814,20 +2844,20 @@
       <c r="B91" t="s">
         <v>111</v>
       </c>
-      <c r="C91" t="n">
-        <v>2015.0</v>
+      <c r="C91" t="s">
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F91" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G91" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H91" t="s">
         <v>53</v>
@@ -2840,20 +2870,20 @@
       <c r="B92" t="s">
         <v>111</v>
       </c>
-      <c r="C92" t="n">
-        <v>2016.0</v>
+      <c r="C92" t="s">
+        <v>126</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E92" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F92" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G92" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H92" t="s">
         <v>53</v>
@@ -2866,20 +2896,20 @@
       <c r="B93" t="s">
         <v>111</v>
       </c>
-      <c r="C93" t="n">
-        <v>2017.0</v>
+      <c r="C93" t="s">
+        <v>125</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E93" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F93" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G93" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H93" t="s">
         <v>53</v>
@@ -2892,20 +2922,20 @@
       <c r="B94" t="s">
         <v>111</v>
       </c>
-      <c r="C94" t="n">
-        <v>2018.0</v>
+      <c r="C94" t="s">
+        <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E94" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H94" t="s">
         <v>53</v>
@@ -2918,20 +2948,20 @@
       <c r="B95" t="s">
         <v>111</v>
       </c>
-      <c r="C95" t="n">
-        <v>2019.0</v>
+      <c r="C95" t="s">
+        <v>132</v>
       </c>
       <c r="D95" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E95" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G95" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H95" t="s">
         <v>53</v>
@@ -2944,20 +2974,20 @@
       <c r="B96" t="s">
         <v>111</v>
       </c>
-      <c r="C96" t="n">
-        <v>2020.0</v>
+      <c r="C96" t="s">
+        <v>133</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E96" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F96" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G96" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H96" t="s">
         <v>53</v>
@@ -2970,20 +3000,20 @@
       <c r="B97" t="s">
         <v>112</v>
       </c>
-      <c r="C97" t="n">
-        <v>2013.0</v>
+      <c r="C97" t="s">
+        <v>131</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E97" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H97" t="s">
         <v>54</v>
@@ -2996,20 +3026,20 @@
       <c r="B98" t="s">
         <v>112</v>
       </c>
-      <c r="C98" t="n">
-        <v>2013.0</v>
+      <c r="C98" t="s">
+        <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E98" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F98" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G98" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H98" t="s">
         <v>54</v>
@@ -3022,20 +3052,20 @@
       <c r="B99" t="s">
         <v>112</v>
       </c>
-      <c r="C99" t="n">
-        <v>2016.0</v>
+      <c r="C99" t="s">
+        <v>126</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E99" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H99" t="s">
         <v>54</v>
@@ -3048,20 +3078,20 @@
       <c r="B100" t="s">
         <v>112</v>
       </c>
-      <c r="C100" t="n">
-        <v>2019.0</v>
+      <c r="C100" t="s">
+        <v>132</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E100" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G100" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H100" t="s">
         <v>54</v>
@@ -3074,20 +3104,20 @@
       <c r="B101" t="s">
         <v>113</v>
       </c>
-      <c r="C101" t="n">
-        <v>2016.0</v>
+      <c r="C101" t="s">
+        <v>126</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E101" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F101" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G101" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H101" t="s">
         <v>55</v>
@@ -3100,20 +3130,20 @@
       <c r="B102" t="s">
         <v>114</v>
       </c>
-      <c r="C102" t="n">
-        <v>2016.0</v>
+      <c r="C102" t="s">
+        <v>126</v>
       </c>
       <c r="D102" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F102" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G102" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H102" t="s">
         <v>56</v>
@@ -3126,20 +3156,20 @@
       <c r="B103" t="s">
         <v>115</v>
       </c>
-      <c r="C103" t="n">
-        <v>2017.0</v>
+      <c r="C103" t="s">
+        <v>125</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E103" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F103" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G103" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H103" t="s">
         <v>57</v>
@@ -3152,20 +3182,20 @@
       <c r="B104" t="s">
         <v>116</v>
       </c>
-      <c r="C104" t="n">
-        <v>2015.0</v>
+      <c r="C104" t="s">
+        <v>124</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E104" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F104" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G104" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H104" t="s">
         <v>58</v>
@@ -3178,20 +3208,20 @@
       <c r="B105" t="s">
         <v>116</v>
       </c>
-      <c r="C105" t="n">
-        <v>2017.0</v>
+      <c r="C105" t="s">
+        <v>125</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E105" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G105" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H105" t="s">
         <v>58</v>
@@ -3204,20 +3234,20 @@
       <c r="B106" t="s">
         <v>116</v>
       </c>
-      <c r="C106" t="n">
-        <v>2022.0</v>
+      <c r="C106" t="s">
+        <v>128</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E106" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F106" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G106" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H106" t="s">
         <v>58</v>
@@ -3230,20 +3260,20 @@
       <c r="B107" t="s">
         <v>117</v>
       </c>
-      <c r="C107" t="n">
-        <v>2016.0</v>
+      <c r="C107" t="s">
+        <v>126</v>
       </c>
       <c r="D107" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E107" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F107" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G107" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H107" t="s">
         <v>59</v>
@@ -3256,20 +3286,20 @@
       <c r="B108" t="s">
         <v>118</v>
       </c>
-      <c r="C108" t="n">
-        <v>2013.0</v>
+      <c r="C108" t="s">
+        <v>131</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E108" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F108" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G108" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H108" t="s">
         <v>60</v>
@@ -3282,20 +3312,20 @@
       <c r="B109" t="s">
         <v>118</v>
       </c>
-      <c r="C109" t="n">
-        <v>2017.0</v>
+      <c r="C109" t="s">
+        <v>125</v>
       </c>
       <c r="D109" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E109" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G109" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H109" t="s">
         <v>60</v>
@@ -3308,20 +3338,20 @@
       <c r="B110" t="s">
         <v>119</v>
       </c>
-      <c r="C110" t="n">
-        <v>2013.0</v>
+      <c r="C110" t="s">
+        <v>131</v>
       </c>
       <c r="D110" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E110" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F110" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G110" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H110" t="s">
         <v>61</v>
@@ -3334,20 +3364,20 @@
       <c r="B111" t="s">
         <v>119</v>
       </c>
-      <c r="C111" t="n">
-        <v>2018.0</v>
+      <c r="C111" t="s">
+        <v>130</v>
       </c>
       <c r="D111" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E111" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G111" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H111" t="s">
         <v>61</v>
@@ -3360,20 +3390,20 @@
       <c r="B112" t="s">
         <v>120</v>
       </c>
-      <c r="C112" t="n">
-        <v>2014.0</v>
+      <c r="C112" t="s">
+        <v>127</v>
       </c>
       <c r="D112" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E112" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F112" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G112" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H112" t="s">
         <v>62</v>
@@ -3386,20 +3416,20 @@
       <c r="B113" t="s">
         <v>120</v>
       </c>
-      <c r="C113" t="n">
-        <v>2016.0</v>
+      <c r="C113" t="s">
+        <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E113" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F113" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G113" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H113" t="s">
         <v>62</v>
@@ -3412,20 +3442,20 @@
       <c r="B114" t="s">
         <v>120</v>
       </c>
-      <c r="C114" t="n">
-        <v>2018.0</v>
+      <c r="C114" t="s">
+        <v>130</v>
       </c>
       <c r="D114" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E114" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G114" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H114" t="s">
         <v>62</v>
@@ -3438,20 +3468,20 @@
       <c r="B115" t="s">
         <v>121</v>
       </c>
-      <c r="C115" t="n">
-        <v>2013.0</v>
+      <c r="C115" t="s">
+        <v>131</v>
       </c>
       <c r="D115" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E115" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F115" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G115" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H115" t="s">
         <v>63</v>
@@ -3464,20 +3494,20 @@
       <c r="B116" t="s">
         <v>122</v>
       </c>
-      <c r="C116" t="n">
-        <v>2013.0</v>
+      <c r="C116" t="s">
+        <v>131</v>
       </c>
       <c r="D116" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E116" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G116" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H116" t="s">
         <v>64</v>
@@ -3490,20 +3520,20 @@
       <c r="B117" t="s">
         <v>122</v>
       </c>
-      <c r="C117" t="n">
-        <v>2018.0</v>
+      <c r="C117" t="s">
+        <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E117" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F117" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G117" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H117" t="s">
         <v>64</v>
@@ -3516,20 +3546,20 @@
       <c r="B118" t="s">
         <v>123</v>
       </c>
-      <c r="C118" t="n">
-        <v>2015.0</v>
+      <c r="C118" t="s">
+        <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E118" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F118" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G118" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H118" t="s">
         <v>65</v>
